--- a/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2216026325483608</v>
+        <v>0.2161975982471196</v>
       </c>
       <c r="C2" t="n">
-        <v>3.859159070398101e-152</v>
+        <v>2.591941345092847e-153</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,16 +486,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.196069981850685</v>
+        <v>0.1247716102218387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3282674744690943</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>8.39459470583371e-12</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -505,16 +509,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1674856536804848</v>
+        <v>0.06652051411738401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05085454280918648</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>9.899750664331163e-28</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -524,16 +532,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1198878253657684</v>
+        <v>0.0590438730426792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.330578393025363</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.02065464015814334</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -543,16 +555,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07629876547784825</v>
+        <v>0.05397123717838388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05039837994631833</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>4.319450230196629e-06</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -562,14 +578,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06510472945974434</v>
+        <v>0.04950477910588368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07117532070032311</v>
+        <v>0.102631809578559</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -581,16 +597,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05915631438367458</v>
+        <v>0.02740614778513223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1295279519405602</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>7.962265083428027e-06</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -600,18 +620,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05413261986269116</v>
+        <v>0.02656508939325192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03875515193964542</v>
+        <v>6.088797332812716e-06</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -623,18 +643,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04662934089916937</v>
+        <v>0.02243565781947125</v>
       </c>
       <c r="C10" t="n">
-        <v>4.514054163068887e-06</v>
+        <v>0.001684682712819746</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -646,14 +666,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04030991642830309</v>
+        <v>0.007689188119411104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226554417520638</v>
+        <v>0.6560733378028589</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -665,14 +685,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03507804592639564</v>
+        <v>0.005164428897501384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3642671445490255</v>
+        <v>0.5112961389066712</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -688,10 +708,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01381224212798425</v>
+        <v>0.001497045993798715</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3493124915589957</v>
+        <v>0.7952784374685754</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -703,15 +723,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.008594426026574965</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7791523504714079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -722,14 +740,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007091414179336484</v>
+        <v>-0.002143396444145825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8528323037431139</v>
+        <v>0.7664532809954758</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -741,14 +759,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003826701267853963</v>
+        <v>-0.002241957875308856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8414593395099885</v>
+        <v>0.6630626851531053</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -760,14 +778,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003409577462434083</v>
+        <v>-0.004406794628620946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8256369489126786</v>
+        <v>0.5231682320300235</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -779,14 +797,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003264712911483308</v>
+        <v>-0.01027519568821032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8646092929908624</v>
+        <v>0.5014185371014228</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -798,16 +816,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001535215434792639</v>
+        <v>-0.01428328340307798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9558453775710044</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.04042679931048114</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -817,14 +839,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+        <v>-0.01547174796119295</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.004563603600050165</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -834,16 +862,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002686841568394424</v>
+        <v>-0.01625626620498499</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7946503720470899</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.01163023415329379</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -853,14 +885,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005626419037944697</v>
+        <v>-0.01652689321415429</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5773413225162709</v>
+        <v>0.8188294240189631</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -872,14 +904,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005629015325892018</v>
+        <v>-0.01723680904776562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4865599136567116</v>
+        <v>0.2113973966144023</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -891,16 +923,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.00572420289592551</v>
+        <v>-0.02585943607993506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4517403504978802</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.009906634057404762</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -910,14 +946,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.01204366977988629</v>
+        <v>-0.03202658383902722</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3085926523747269</v>
+        <v>0.1289697962840741</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -929,14 +965,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02585246501153456</v>
+        <v>-0.03883916242409765</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1041179766340247</v>
+        <v>0.5102652758251093</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -948,16 +984,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.03067069887273618</v>
+        <v>-0.0513343945645507</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3366072598845954</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>0.002042026670983654</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -967,18 +1007,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.03122466611348367</v>
+        <v>-0.06690643755915868</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00482607716213101</v>
+        <v>1.346282011666029e-07</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -990,16 +1030,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.03158421969596502</v>
+        <v>-0.06984661748493802</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3631606083933091</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>0.0003148252562759787</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -1009,117 +1053,125 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kurtosis of Long Tail Items</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.03357444169416032</v>
+        <v>0.2399670372410528</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4140256170910387</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>1.246977637011827e-17</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.1113372983976718</v>
+        <v>0.2341408255158305</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002297985753553273</v>
+        <v>3.519540077832828e-105</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.1376121885168275</v>
+        <v>0.09310992926777326</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2950029392088485</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>2.593693949877552e-24</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1686127583313816</v>
+        <v>0.09009101477718581</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3699689490888718</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>4.37328155854114e-07</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.2072778303770197</v>
+        <v>0.06567193958521655</v>
       </c>
       <c r="C34" t="n">
-        <v>0.007324310969353468</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.5479933355183861</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2450296445298169</v>
+        <v>0.04506549757160849</v>
       </c>
       <c r="C35" t="n">
-        <v>3.248555362486565e-102</v>
+        <v>4.375922655407659e-07</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1135,16 +1187,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2033545605950512</v>
+        <v>0.0450255172055774</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5193093648834712</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>1.331410456005588e-06</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1154,14 +1210,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1676228598407705</v>
+        <v>0.03861056592940054</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2137774436183636</v>
+        <v>0.3166170603859646</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1173,14 +1229,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.09500744817244353</v>
+        <v>0.03550552757463711</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1213399207426668</v>
+        <v>0.1255232821593624</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1192,16 +1248,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08091214171348451</v>
+        <v>0.03345525702661915</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6763958375964207</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>0.005145830527810092</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1211,16 +1271,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.07385626200816479</v>
+        <v>0.02257422885345826</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2289355461303801</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>0.03639189926347117</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1230,14 +1294,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.06143170426817343</v>
+        <v>0.01837463375120444</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1357258405245068</v>
+        <v>0.6887900370001867</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1249,14 +1313,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0545642912437312</v>
+        <v>0.0129901628045351</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2982205945346844</v>
+        <v>0.6194156995794069</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1268,20 +1332,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05329356948003541</v>
+        <v>0.005328296682933788</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0008127870498876439</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5421533628520863</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1291,14 +1351,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.05232670320204155</v>
+        <v>0.0004261910300258666</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3898227488326678</v>
+        <v>0.9893452216153027</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1310,15 +1370,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.04352336808130092</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.4427703507136638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -1329,14 +1387,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02067208923735704</v>
+        <v>-0.006846019400952399</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3734477240179299</v>
+        <v>0.5311903551634999</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1348,14 +1406,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01592346527298843</v>
+        <v>-0.007180614544607805</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7413192799911257</v>
+        <v>0.3570988973784277</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1367,14 +1425,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01039086691645303</v>
+        <v>-0.01502175463545135</v>
       </c>
       <c r="C48" t="n">
-        <v>0.677705796183228</v>
+        <v>0.1511385199627034</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -1386,16 +1444,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.009947975158083371</v>
+        <v>-0.02111220915156761</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8686736294461039</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>0.04549968499971394</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1405,16 +1467,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006479786961242247</v>
+        <v>-0.02273167213206912</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8819631841188451</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>0.01978315484755147</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1424,16 +1490,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.005267557676091784</v>
+        <v>-0.02929355697259788</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8611227200521212</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>0.0004051725269894863</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1443,16 +1513,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.00468041748199232</v>
+        <v>-0.03992799882519235</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8765722830048021</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>0.008574217745085721</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1462,16 +1536,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.004542264212744332</v>
+        <v>-0.04483318650942139</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8520734840930232</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>0.03215828770259933</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1481,13 +1559,15 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>-0.1068657700044317</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.2319437496202559</v>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
@@ -1498,16 +1578,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.005443815821493159</v>
+        <v>-0.1075055630656505</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9206383586542826</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>2.369688499770045e-08</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1517,16 +1601,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.006530385238261599</v>
+        <v>-0.1141976873078695</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5853794755593651</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>0.0001026236554410252</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1536,16 +1624,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.006572423814316497</v>
+        <v>-0.1472544236138735</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6056886654156134</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>8.146548863591414e-09</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1555,218 +1647,242 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.007201806496442951</v>
+        <v>0.2736306026956323</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6503762032277343</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>8.841778257894394e-183</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.008722136499049404</v>
+        <v>0.09582708529393386</v>
       </c>
       <c r="C59" t="n">
-        <v>0.591425191211875</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>0.002853725977050886</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.01834287536474647</v>
+        <v>0.07452963438490096</v>
       </c>
       <c r="C60" t="n">
-        <v>0.324469953966516</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>0.005710284833575199</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.02742165132645026</v>
+        <v>0.06349561262043929</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1147181654234345</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>1.902880146434419e-23</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.04749633976472298</v>
+        <v>0.04407124451264775</v>
       </c>
       <c r="C62" t="n">
-        <v>0.344423893486774</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>0.01938982179007898</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kurtosis of Long Tail Items</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.05014818525929705</v>
+        <v>0.03737463874638416</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4382151180247822</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>0.002411089750431188</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.1032433413996743</v>
+        <v>0.02708033794144164</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6174836144102407</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>0.0003362887844275039</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.1321251779212892</v>
+        <v>0.02700392549874032</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0212350515826487</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1228655573386732</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1709616502360017</v>
+        <v>0.0199759265707039</v>
       </c>
       <c r="C66" t="n">
-        <v>0.56345857566548</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>0.001926802030624097</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.2761954600818489</v>
+        <v>0.01739871217568081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02303041949883029</v>
+        <v>0.004719179449270521</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2749465521658407</v>
+        <v>0.01365927025950549</v>
       </c>
       <c r="C68" t="n">
-        <v>5.400411327094604e-187</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4536691204175821</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1776,14 +1892,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.24512889547754</v>
+        <v>0.01338479846284851</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2218759523235262</v>
+        <v>0.8297639117696598</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -1795,14 +1911,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2093133617904499</v>
+        <v>0.006048973680099135</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08979768175849225</v>
+        <v>0.6775621844495077</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -1814,20 +1930,16 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1795144111647886</v>
+        <v>0.005368297369980105</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03645809159830764</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.4810736686448569</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1837,20 +1949,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08463015879318674</v>
+        <v>0.004793612118347279</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01917795798090795</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.3776525057274018</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1860,20 +1968,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.07760855656510857</v>
+        <v>0.003867419921540012</v>
       </c>
       <c r="C73" t="n">
-        <v>0.04664424353670638</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.595518879437976</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1883,15 +1987,13 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06476393571823651</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.09714734518808804</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
@@ -1902,20 +2004,16 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.05918884343044807</v>
+        <v>-0.00282199650614582</v>
       </c>
       <c r="C75" t="n">
-        <v>0.02393099017830892</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.622598976434089</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1925,20 +2023,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.05428709902873233</v>
+        <v>-0.004326938926750903</v>
       </c>
       <c r="C76" t="n">
-        <v>1.056177981415292e-07</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4775343233152424</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1948,14 +2042,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.03921985197396115</v>
+        <v>-0.007538774712042033</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2394600353014497</v>
+        <v>0.3046785229145504</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
@@ -1967,16 +2061,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01177607244686863</v>
+        <v>-0.01855745903368237</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7606527748278483</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>0.006389436667861435</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1986,14 +2084,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.009470968060523659</v>
+        <v>-0.01899918894070655</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8043761337885331</v>
+        <v>0.07211045742166652</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
@@ -2005,16 +2103,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.00899354690644863</v>
+        <v>-0.02809258948625731</v>
       </c>
       <c r="C80" t="n">
-        <v>0.542244375310988</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>0.0007659090377056832</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2024,14 +2126,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.005700889644226423</v>
+        <v>-0.03064373277323287</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8371439031992109</v>
+        <v>0.1320324086432831</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
@@ -2043,16 +2145,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.004984937578165448</v>
+        <v>-0.04748605389394335</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7944774943679008</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>0.00035140370115946</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2062,16 +2168,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.004486030482359087</v>
+        <v>-0.06054558412458902</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8148025474928411</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>0.0001949721271231267</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2081,16 +2191,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.003484018588990598</v>
+        <v>-0.0739836728642151</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7358100186274815</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
+        <v>0.0009432358023745086</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2100,14 +2214,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.002258246351693952</v>
+        <v>-0.09411771256258332</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8840190491373605</v>
+        <v>0.2169282067331242</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
@@ -2119,323 +2233,331 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+        <v>0.4150169328266196</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.666728364358303e-210</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.0005608805156216944</v>
+        <v>0.1067842068565804</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9854019664241218</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>3.732715306777337e-36</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.001325395519029469</v>
+        <v>0.09314933105780217</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8955673108689115</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>0.0001435369621022959</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.005419270395360286</v>
+        <v>0.07839930099736392</v>
       </c>
       <c r="C89" t="n">
-        <v>0.476294689679576</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>1.049640857026248e-06</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.008455198988904612</v>
+        <v>0.05066172904176576</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2962440233544735</v>
+        <v>0.2208641368292034</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kurtosis of Long Tail Items</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.008880435883865893</v>
+        <v>0.04884236594708394</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8289326172622102</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>0.0386945872843538</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.009611086316133097</v>
+        <v>0.04156778216110238</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7632848088170956</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+        <v>7.446402955255412e-07</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.01012292006376082</v>
+        <v>0.03683151883626197</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3921489241102071</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+        <v>4.392511600514349e-06</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.04697475403815576</v>
+        <v>0.03117799670891451</v>
       </c>
       <c r="C94" t="n">
-        <v>2.484680704612544e-05</v>
+        <v>0.001391983355091397</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.07079868324627092</v>
+        <v>0.02590942681177599</v>
       </c>
       <c r="C95" t="n">
-        <v>1.039339581283335e-05</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4558155388482794</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.07217617223487861</v>
+        <v>0.01347359448438606</v>
       </c>
       <c r="C96" t="n">
-        <v>0.03811609237087404</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.0555911663204523</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.1137568790450853</v>
+        <v>0.008479318543625701</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00184856198483446</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.3896078287429153</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.1620131740368168</v>
+        <v>0.002652130248788465</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0358365656561714</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.778332886798963</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.2155538657913727</v>
+        <v>0.00240755005941648</v>
       </c>
       <c r="C99" t="n">
-        <v>0.101317004735584</v>
+        <v>0.9761457512326049</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.2277107120909348</v>
+        <v>4.023059525069903e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2262703279939217</v>
+        <v>0.9959250048695477</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.4187957966735029</v>
-      </c>
-      <c r="C101" t="n">
-        <v>6.218289928030008e-211</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2445,14 +2567,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1649358865804782</v>
+        <v>-0.0001257846238234828</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5346854698521142</v>
+        <v>0.9864658350475197</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
@@ -2464,14 +2586,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1590207279484008</v>
+        <v>-0.002223280075716698</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1613010331337648</v>
+        <v>0.9059356124537229</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
@@ -2483,14 +2605,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1408295195868133</v>
+        <v>-0.004144468361865439</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3883104178650826</v>
+        <v>0.8545543279833387</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
@@ -2502,20 +2624,16 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1060039012102753</v>
+        <v>-0.01095427204224429</v>
       </c>
       <c r="C105" t="n">
-        <v>0.04024907952810108</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.2489143443914909</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2525,16 +2643,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.09697823699406383</v>
+        <v>-0.02295836307947741</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0608710280324704</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
+        <v>0.009070270190996035</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2544,18 +2666,18 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.07964756113170823</v>
+        <v>-0.03050811265191439</v>
       </c>
       <c r="C107" t="n">
-        <v>4.390412435621421e-09</v>
+        <v>0.02570444834697933</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -2567,20 +2689,16 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0786886105180411</v>
+        <v>-0.03258580498091362</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02342694697862838</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.2154291197885552</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2590,14 +2708,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.06172887274183089</v>
+        <v>-0.03711960542929818</v>
       </c>
       <c r="C109" t="n">
-        <v>0.162329508021799</v>
+        <v>0.7063291218163231</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
@@ -2609,16 +2727,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.04436622700301111</v>
+        <v>-0.04173271571977913</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2275557373519302</v>
-      </c>
-      <c r="D110" t="inlineStr"/>
+        <v>0.0001146677353132718</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2628,14 +2750,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.03823597838791396</v>
+        <v>-0.04315463507004078</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4231680179320108</v>
+        <v>0.1340269054297011</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
@@ -2647,16 +2769,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.01576459159242896</v>
+        <v>-0.07835103119227999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7556221270164319</v>
-      </c>
-      <c r="D112" t="inlineStr"/>
+        <v>5.622501341909278e-06</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2666,407 +2792,21 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.01243197229504627</v>
+        <v>-0.08008053594421627</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8081748134110391</v>
-      </c>
-      <c r="D113" t="inlineStr"/>
+        <v>0.0001398617578982449</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.009422919060288359</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.8164977902185246</v>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.008034895738244618</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.7514629791610221</v>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.007729695854184523</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.76041432356559</v>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Skewness of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.005675322569931104</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.7715339859129158</v>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Model Name_PFCN_MLP</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.005096767843650263</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.7094309547449764</v>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Model Name_NFCF</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.003764197037467144</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.7783866482486419</v>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Kurtosis of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.0005565414153180029</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9918434468681538</v>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Dataset_ml1m</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Gini Item</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>-0.005239031585788225</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.7983519140494397</v>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>-0.005420096757356248</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.5906735235909806</v>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Kurtosis of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>-0.006660289637532478</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.6707165483064218</v>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Gini User</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.01221172847189504</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.2548100799623841</v>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.01416980413621254</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.7374753759815665</v>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Average Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.05014975122078527</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.2759148302393802</v>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Model Name_FairGo_PMF</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.0727439344203888</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9.025762444097044e-07</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.09647571202051894</v>
-      </c>
-      <c r="C129" t="n">
-        <v>5.824084720962655e-06</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.1342075590321476</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.5900745809599364</v>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.1358334844031132</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.004963086540140883</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.1472492657982779</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.1493395186199061</v>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.1596610316101501</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.3590735251476054</v>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
         <is>
           <t>hit@5</t>
         </is>

--- a/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2161975982471196</v>
+        <v>0.2237314324443324</v>
       </c>
       <c r="C2" t="n">
-        <v>2.591941345092847e-153</v>
+        <v>2.879637307679378e-211</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,14 +486,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1247716102218387</v>
+        <v>0.1379897170844807</v>
       </c>
       <c r="C3" t="n">
-        <v>8.39459470583371e-12</v>
+        <v>3.308498395562952e-06</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,14 +509,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06652051411738401</v>
+        <v>0.08322823270811829</v>
       </c>
       <c r="C4" t="n">
-        <v>9.899750664331163e-28</v>
+        <v>7.969472712127836e-09</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -532,18 +532,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0590438730426792</v>
+        <v>0.0785505540474003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02065464015814334</v>
+        <v>0.009433135804346073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -555,18 +555,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05397123717838388</v>
+        <v>0.07074958456487065</v>
       </c>
       <c r="C6" t="n">
-        <v>4.319450230196629e-06</v>
+        <v>0.007695809090327831</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -578,16 +578,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04950477910588368</v>
+        <v>0.05774813174971308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102631809578559</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>3.510298239602509e-07</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -597,18 +601,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02740614778513223</v>
+        <v>0.05339231627464543</v>
       </c>
       <c r="C8" t="n">
-        <v>7.962265083428027e-06</v>
+        <v>0.001262043083808689</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -620,14 +624,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02656508939325192</v>
+        <v>0.05274563485199149</v>
       </c>
       <c r="C9" t="n">
-        <v>6.088797332812716e-06</v>
+        <v>5.549122369251436e-20</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -643,18 +647,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02243565781947125</v>
+        <v>0.05224695181957729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001684682712819746</v>
+        <v>9.202600095581002e-05</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -666,16 +670,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007689188119411104</v>
+        <v>0.0318748822102527</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6560733378028589</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.0004872619001866194</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -685,16 +693,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.005164428897501384</v>
+        <v>0.02833901825731942</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5112961389066712</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>0.0018952568853037</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -704,16 +716,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001497045993798715</v>
+        <v>0.021517434064391</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7952784374685754</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0.007615439004034693</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -723,13 +739,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>0.003102219745740861</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9042437504631705</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -740,14 +758,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002143396444145825</v>
+        <v>0.00263034381713434</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7664532809954758</v>
+        <v>0.7070582056133519</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -763,10 +781,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.002241957875308856</v>
+        <v>-0.0003729540267922229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6630626851531053</v>
+        <v>0.9360943534503054</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -778,14 +796,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.004406794628620946</v>
+        <v>-0.001610708367687522</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5231682320300235</v>
+        <v>0.739910767708208</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -797,14 +815,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01027519568821032</v>
+        <v>-0.002934073118823672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5014185371014228</v>
+        <v>0.7525660986591927</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -816,20 +834,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01428328340307798</v>
+        <v>-0.005750072481648978</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04042679931048114</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.6200924932271321</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -839,20 +853,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01547174796119295</v>
+        <v>-0.01370306134576706</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004563603600050165</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.2548067266831541</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -862,20 +872,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01625626620498499</v>
+        <v>-0.01532531974513177</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01163023415329379</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.6657815547747231</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -885,14 +891,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01652689321415429</v>
+        <v>-0.02136020849466725</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8188294240189631</v>
+        <v>0.3436948087801417</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -904,14 +910,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.01723680904776562</v>
+        <v>-0.02515823777275595</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2113973966144023</v>
+        <v>0.2671564862720899</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -923,18 +929,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.02585943607993506</v>
+        <v>-0.0452026360064309</v>
       </c>
       <c r="C24" t="n">
-        <v>0.009906634057404762</v>
+        <v>0.000837864755552399</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -946,16 +952,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.03202658383902722</v>
+        <v>-0.05288936100156641</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1289697962840741</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0.001079804003409192</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -965,16 +975,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.03883916242409765</v>
+        <v>-0.05472481251293498</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5102652758251093</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>0.00270928882398763</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -984,18 +998,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.0513343945645507</v>
+        <v>-0.05937870471672341</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002042026670983654</v>
+        <v>1.601564149269527e-07</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1007,18 +1021,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.06690643755915868</v>
+        <v>-0.0735011012228029</v>
       </c>
       <c r="C28" t="n">
-        <v>1.346282011666029e-07</v>
+        <v>0.001361481758704861</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1030,20 +1044,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.06984661748493802</v>
+        <v>-0.08252761537987029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003148252562759787</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1205239109836824</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -1053,14 +1063,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2399670372410528</v>
+        <v>-0.1364605387986745</v>
       </c>
       <c r="C30" t="n">
-        <v>1.246977637011827e-17</v>
+        <v>1.357249675283588e-08</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1069,21 +1079,21 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>ndcg@5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2341408255158305</v>
+        <v>0.2546645985041406</v>
       </c>
       <c r="C31" t="n">
-        <v>3.519540077832828e-105</v>
+        <v>2.11599228045277e-09</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1099,14 +1109,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.09310992926777326</v>
+        <v>0.2493783740759663</v>
       </c>
       <c r="C32" t="n">
-        <v>2.593693949877552e-24</v>
+        <v>8.646958870438948e-161</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1122,18 +1132,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.09009101477718581</v>
+        <v>0.1138010989083992</v>
       </c>
       <c r="C33" t="n">
-        <v>4.37328155854114e-07</v>
+        <v>0.00265250942713661</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1145,16 +1155,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.06567193958521655</v>
+        <v>0.1086670368879959</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5479933355183861</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>0.01173775255803684</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1164,14 +1178,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04506549757160849</v>
+        <v>0.09730939798746172</v>
       </c>
       <c r="C35" t="n">
-        <v>4.375922655407659e-07</v>
+        <v>1.990297151533981e-09</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1187,14 +1201,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0450255172055774</v>
+        <v>0.08204659033008838</v>
       </c>
       <c r="C36" t="n">
-        <v>1.331410456005588e-06</v>
+        <v>5.90548209319097e-05</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1210,16 +1224,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03861056592940054</v>
+        <v>0.06655136772921616</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3166170603859646</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>3.434535544269424e-16</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1229,16 +1247,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03550552757463711</v>
+        <v>0.06570629815395876</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1255232821593624</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>0.0005503797498281381</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1248,18 +1270,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.03345525702661915</v>
+        <v>0.05900904524636993</v>
       </c>
       <c r="C39" t="n">
-        <v>0.005145830527810092</v>
+        <v>0.01227312644647391</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1271,14 +1293,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02257422885345826</v>
+        <v>0.03204612877060983</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03639189926347117</v>
+        <v>0.01367083089704041</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1294,14 +1316,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01837463375120444</v>
+        <v>0.02984597869214318</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6887900370001867</v>
+        <v>0.4168952569240778</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1313,16 +1335,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0129901628045351</v>
+        <v>0.02750719322962204</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6194156995794069</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>0.03405053689638154</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1332,16 +1358,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.005328296682933788</v>
+        <v>0.02696291647575844</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5421533628520863</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>0.01889633793601176</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1351,14 +1381,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0004261910300258666</v>
+        <v>0.004078955977092721</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9893452216153027</v>
+        <v>0.8990176590900252</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1370,13 +1400,15 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>0.001487244161487086</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9283165536598849</v>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -1387,14 +1419,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.006846019400952399</v>
+        <v>-0.001468171993355555</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5311903551634999</v>
+        <v>0.8829942908462932</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1410,10 +1442,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.007180614544607805</v>
+        <v>-0.001978813736672789</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3570988973784277</v>
+        <v>0.7653552591978994</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1425,14 +1457,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.01502175463545135</v>
+        <v>-0.00409533675281745</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1511385199627034</v>
+        <v>0.5537668583287723</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -1444,20 +1476,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.02111220915156761</v>
+        <v>-0.01686611303306327</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04549968499971394</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.2038416534233325</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1467,20 +1495,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.02273167213206912</v>
+        <v>-0.02238272813429143</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01978315484755147</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.3879839809331981</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1490,20 +1514,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.02929355697259788</v>
+        <v>-0.031647186657613</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0004051725269894863</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.06523569405943994</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1513,18 +1533,18 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.03992799882519235</v>
+        <v>-0.04020138685156019</v>
       </c>
       <c r="C52" t="n">
-        <v>0.008574217745085721</v>
+        <v>0.01208699288582906</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1536,20 +1556,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.04483318650942139</v>
+        <v>-0.04965799164162694</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03215828770259933</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1245473390274772</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1559,16 +1575,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.1068657700044317</v>
+        <v>-0.06193839655041734</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2319437496202559</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>0.001318692392835054</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1578,14 +1598,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1075055630656505</v>
+        <v>-0.07906515018417454</v>
       </c>
       <c r="C55" t="n">
-        <v>2.369688499770045e-08</v>
+        <v>0.0006102455578169683</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1601,20 +1621,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.1141976873078695</v>
+        <v>-0.09648229940171656</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0001026236554410252</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2027219006713823</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1624,18 +1640,18 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.1472544236138735</v>
+        <v>-0.09965901109913508</v>
       </c>
       <c r="C57" t="n">
-        <v>8.146548863591414e-09</v>
+        <v>0.002305579602891006</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1647,14 +1663,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2736306026956323</v>
+        <v>-0.1434100259936967</v>
       </c>
       <c r="C58" t="n">
-        <v>8.841778257894394e-183</v>
+        <v>2.54782363892389e-05</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1663,48 +1679,48 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.09582708529393386</v>
+        <v>-0.1770181352522234</v>
       </c>
       <c r="C59" t="n">
-        <v>0.002853725977050886</v>
+        <v>0.0004933401814687364</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07452963438490096</v>
+        <v>0.2732956530600769</v>
       </c>
       <c r="C60" t="n">
-        <v>0.005710284833575199</v>
+        <v>1.320784163749622e-220</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1716,14 +1732,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.06349561262043929</v>
+        <v>0.1685238586322807</v>
       </c>
       <c r="C61" t="n">
-        <v>1.902880146434419e-23</v>
+        <v>5.541440334074641e-05</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1739,18 +1755,18 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.04407124451264775</v>
+        <v>0.1151472205312497</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01938982179007898</v>
+        <v>1.177055970178173e-11</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1762,18 +1778,18 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03737463874638416</v>
+        <v>0.09098429745214176</v>
       </c>
       <c r="C63" t="n">
-        <v>0.002411089750431188</v>
+        <v>0.01022619630966718</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1785,14 +1801,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02708033794144164</v>
+        <v>0.0728920608593579</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003362887844275039</v>
+        <v>0.0001739084246028109</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1808,16 +1824,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02700392549874032</v>
+        <v>0.05739482682815973</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1228655573386732</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>1.321504024628584e-17</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1827,18 +1847,18 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0199759265707039</v>
+        <v>0.05621815854903161</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001926802030624097</v>
+        <v>0.0003219353168929162</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1850,20 +1870,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01739871217568081</v>
+        <v>0.04774727568351127</v>
       </c>
       <c r="C67" t="n">
-        <v>0.004719179449270521</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1238323147406725</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1873,16 +1889,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01365927025950549</v>
+        <v>0.04587965757431003</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4536691204175821</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>1.893092356476287e-05</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1892,16 +1912,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01338479846284851</v>
+        <v>0.03881267622287856</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8297639117696598</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>0.003246967067444789</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1911,16 +1935,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.006048973680099135</v>
+        <v>0.03654961102437081</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6775621844495077</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>0.0006293044485616506</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1930,16 +1958,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.005368297369980105</v>
+        <v>0.02701240328504542</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4810736686448569</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>0.004236733221422801</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1949,14 +1981,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.004793612118347279</v>
+        <v>0.02205328040124725</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3776525057274018</v>
+        <v>0.5221906734201467</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -1968,14 +2000,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.003867419921540012</v>
+        <v>0.01260290900091675</v>
       </c>
       <c r="C73" t="n">
-        <v>0.595518879437976</v>
+        <v>0.2477091208457971</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -1987,13 +2019,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>0.006210492676199469</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.2745241266939678</v>
+      </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
@@ -2004,14 +2038,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.00282199650614582</v>
+        <v>0.005337266727846499</v>
       </c>
       <c r="C75" t="n">
-        <v>0.622598976434089</v>
+        <v>0.5149309355920791</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -2023,14 +2057,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.004326938926750903</v>
+        <v>0.003949474627152609</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4775343233152424</v>
+        <v>0.4684554200897806</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
@@ -2042,14 +2076,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.007538774712042033</v>
+        <v>0.0009469962036853519</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3046785229145504</v>
+        <v>0.946388149396622</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
@@ -2061,20 +2095,16 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.01855745903368237</v>
+        <v>-0.01374529260807573</v>
       </c>
       <c r="C78" t="n">
-        <v>0.006389436667861435</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.6489702106946189</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2088,10 +2118,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.01899918894070655</v>
+        <v>-0.01466820958906263</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07211045742166652</v>
+        <v>0.2803244360424146</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
@@ -2103,20 +2133,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.02809258948625731</v>
+        <v>-0.0180922365927852</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0007659090377056832</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4954292523616093</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2126,16 +2152,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.03064373277323287</v>
+        <v>-0.04133864470436999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1320324086432831</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>0.02874462092841643</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2145,18 +2175,18 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.04748605389394335</v>
+        <v>-0.04702804145853617</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00035140370115946</v>
+        <v>0.002975197152337735</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2168,18 +2198,18 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.06054558412458902</v>
+        <v>-0.05449043377305434</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0001949721271231267</v>
+        <v>0.03937056189076597</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2191,18 +2221,18 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.0739836728642151</v>
+        <v>-0.0699216951760941</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0009432358023745086</v>
+        <v>0.009174873670528294</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2214,16 +2244,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.09411771256258332</v>
+        <v>-0.09628394053737245</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2169282067331242</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>6.509710764732648e-13</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2233,37 +2267,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4150169328266196</v>
+        <v>-0.1086436029504074</v>
       </c>
       <c r="C86" t="n">
-        <v>3.666728364358303e-210</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.08096391876683498</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1067842068565804</v>
+        <v>-0.1144468225722801</v>
       </c>
       <c r="C87" t="n">
-        <v>3.732715306777337e-36</v>
+        <v>1.057374367010834e-07</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2272,21 +2302,21 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.09314933105780217</v>
+        <v>-0.1759412431746429</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0001435369621022959</v>
+        <v>4.465278005563504e-10</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2295,21 +2325,21 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07839930099736392</v>
+        <v>0.4120057125211891</v>
       </c>
       <c r="C89" t="n">
-        <v>1.049640857026248e-06</v>
+        <v>5.417613387936318e-231</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2325,16 +2355,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05066172904176576</v>
+        <v>0.2123878169266527</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2208641368292034</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>0.0004081847690538319</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2344,18 +2378,18 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.04884236594708394</v>
+        <v>0.1718476167469456</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0386945872843538</v>
+        <v>2.166657483852437e-12</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2367,18 +2401,18 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.04156778216110238</v>
+        <v>0.1330110023705964</v>
       </c>
       <c r="C92" t="n">
-        <v>7.446402955255412e-07</v>
+        <v>0.009110738226496018</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2390,14 +2424,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03683151883626197</v>
+        <v>0.1053102317306453</v>
       </c>
       <c r="C93" t="n">
-        <v>4.392511600514349e-06</v>
+        <v>0.0001647461569246928</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2413,18 +2447,18 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.03117799670891451</v>
+        <v>0.08970786121993031</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001391983355091397</v>
+        <v>6.809781936866127e-05</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2436,16 +2470,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02590942681177599</v>
+        <v>0.08757142510928116</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4558155388482794</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
+        <v>1.81654524404454e-19</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2455,16 +2493,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01347359448438606</v>
+        <v>0.07418184636704615</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0555911663204523</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>9.691885176389582e-05</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2474,14 +2516,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.008479318543625701</v>
+        <v>0.07412702268023913</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3896078287429153</v>
+        <v>0.09702855560617084</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
@@ -2493,16 +2535,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.002652130248788465</v>
+        <v>0.06441273547354019</v>
       </c>
       <c r="C98" t="n">
-        <v>0.778332886798963</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+        <v>3.00691824217626e-05</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2512,16 +2558,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.00240755005941648</v>
+        <v>0.04528783280361055</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9761457512326049</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>0.003218122135812922</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2531,16 +2581,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4.023059525069903e-05</v>
+        <v>0.04089749625710126</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9959250048695477</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>0.002637907515361381</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2550,13 +2604,15 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>0.0153042179749036</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.3294245252547686</v>
+      </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
@@ -2571,10 +2627,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.0001257846238234828</v>
+        <v>0.01227982949739648</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9864658350475197</v>
+        <v>0.1335331015450089</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
@@ -2586,14 +2642,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.002223280075716698</v>
+        <v>0.005271473832973821</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9059356124537229</v>
+        <v>0.5014258066908945</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
@@ -2605,14 +2661,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.004144468361865439</v>
+        <v>0.005033458493160642</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8545543279833387</v>
+        <v>0.8039156675705607</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
@@ -2624,14 +2680,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.01095427204224429</v>
+        <v>0.0001875032909947338</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2489143443914909</v>
+        <v>0.9873184420137644</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
@@ -2643,20 +2699,16 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.02295836307947741</v>
+        <v>-0.001994335958209248</v>
       </c>
       <c r="C106" t="n">
-        <v>0.009070270190996035</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.9679249692857353</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2666,20 +2718,16 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.03050811265191439</v>
+        <v>-0.00686798548313685</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02570444834697933</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8744469614270758</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2689,14 +2737,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.03258580498091362</v>
+        <v>-0.02005979841535962</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2154291197885552</v>
+        <v>0.3050363238617613</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
@@ -2708,14 +2756,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.03711960542929818</v>
+        <v>-0.02770077063995358</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7063291218163231</v>
+        <v>0.4684172492033083</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
@@ -2727,18 +2775,18 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.04173271571977913</v>
+        <v>-0.0630129872446987</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001146677353132718</v>
+        <v>0.02059562625633651</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -2750,16 +2798,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.04315463507004078</v>
+        <v>-0.06573513779415682</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1340269054297011</v>
-      </c>
-      <c r="D111" t="inlineStr"/>
+        <v>0.003916861598395446</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2769,20 +2821,16 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.07835103119227999</v>
+        <v>-0.06697103157492537</v>
       </c>
       <c r="C112" t="n">
-        <v>5.622501341909278e-06</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.07843237338240514</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2792,21 +2840,109 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>Number of Users</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.1115314835157065</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.003909286797990524</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>hit@5</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Mean Rating</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.1266940951580796</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1572736751637643</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>hit@5</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Value Unfairness of sensitive attribute</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.1314820192402879</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.294506049553329e-12</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>hit@5</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>giniindex@5</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>-0.08008053594421627</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.0001398617578982449</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="B116" t="n">
+        <v>-0.1599523649148497</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.403618523644169e-07</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>hit@5</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.2310572962856191</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.17062544590426e-08</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>hit@5</t>
         </is>

--- a/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2237314324443324</v>
+        <v>0.2220797453367087</v>
       </c>
       <c r="C2" t="n">
-        <v>2.879637307679378e-211</v>
+        <v>1.605650970628156e-211</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,14 +486,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1379897170844807</v>
+        <v>0.1027493078847351</v>
       </c>
       <c r="C3" t="n">
-        <v>3.308498395562952e-06</v>
+        <v>1.302487829482936e-09</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,14 +509,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08322823270811829</v>
+        <v>0.08730075013280501</v>
       </c>
       <c r="C4" t="n">
-        <v>7.969472712127836e-09</v>
+        <v>1.636702294683559e-11</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -532,18 +532,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0785505540474003</v>
+        <v>0.08679131953579554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009433135804346073</v>
+        <v>9.73239414868836e-05</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -555,18 +555,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07074958456487065</v>
+        <v>0.05501758802147839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007695809090327831</v>
+        <v>2.838007599385072e-05</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -578,14 +578,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05774813174971308</v>
+        <v>0.05275197667690928</v>
       </c>
       <c r="C7" t="n">
-        <v>3.510298239602509e-07</v>
+        <v>3.28006983903799e-33</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05339231627464543</v>
+        <v>0.02963235325443341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001262043083808689</v>
+        <v>0.003324015005149534</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -624,18 +624,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05274563485199149</v>
+        <v>0.02584685174463304</v>
       </c>
       <c r="C9" t="n">
-        <v>5.549122369251436e-20</v>
+        <v>0.0231493118397728</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -647,18 +647,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05224695181957729</v>
+        <v>0.01777626267850053</v>
       </c>
       <c r="C10" t="n">
-        <v>9.202600095581002e-05</v>
+        <v>0.00483795517705311</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -670,18 +670,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0318748822102527</v>
+        <v>0.01185609057593322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004872619001866194</v>
+        <v>0.01090708861005085</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -693,20 +693,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02833901825731942</v>
+        <v>0.009124135505781023</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0018952568853037</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.5720902710518342</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -716,20 +712,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.021517434064391</v>
+        <v>0.003873345047208335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007615439004034693</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.4419506643509135</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -739,14 +731,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003102219745740861</v>
+        <v>0.003785501509801208</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9042437504631705</v>
+        <v>0.6487889970186091</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -758,14 +750,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00263034381713434</v>
+        <v>0.001770308783963221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7070582056133519</v>
+        <v>0.8529386220237147</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -777,14 +769,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0003729540267922229</v>
+        <v>-0.001062639605206746</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9360943534503054</v>
+        <v>0.9208542015418629</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -796,16 +788,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001610708367687522</v>
+        <v>-0.01064707933782278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.739910767708208</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.003642603792345232</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -815,14 +811,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.002934073118823672</v>
+        <v>-0.01391899347098893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7525660986591927</v>
+        <v>0.5185096661160969</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -834,16 +830,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005750072481648978</v>
+        <v>-0.01634588913186207</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6200924932271321</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.0001055887131841121</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -853,14 +853,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01370306134576706</v>
+        <v>-0.02565121300685381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2548067266831541</v>
+        <v>0.133033394313287</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -872,16 +872,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01532531974513177</v>
+        <v>-0.0435501947966925</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6657815547747231</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>3.839686688284572e-05</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -891,16 +895,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02136020849466725</v>
+        <v>-0.05870283543053786</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3436948087801417</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.0003448080980224983</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -910,16 +918,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02515823777275595</v>
+        <v>-0.06400778478116398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2671564862720899</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>1.225034858745629e-07</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>ndcg@5</t>
@@ -929,14 +941,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0452026360064309</v>
+        <v>-0.08642451208983223</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000837864755552399</v>
+        <v>4.465004684283214e-08</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -952,18 +964,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.05288936100156641</v>
+        <v>-0.09888830375717847</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001079804003409192</v>
+        <v>2.07057896806061e-10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -975,18 +987,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.05472481251293498</v>
+        <v>-0.1024519571137303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00270928882398763</v>
+        <v>1.16982229285638e-23</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -998,14 +1010,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.05937870471672341</v>
+        <v>0.2441810126330502</v>
       </c>
       <c r="C27" t="n">
-        <v>1.601564149269527e-07</v>
+        <v>1.824681922672984e-169</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1014,63 +1026,67 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0735011012228029</v>
+        <v>0.1262405752706144</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001361481758704861</v>
+        <v>3.389913032041491e-13</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.08252761537987029</v>
+        <v>0.1232607930673549</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1205239109836824</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>4.578439369103244e-08</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.1364605387986745</v>
+        <v>0.1085747852710668</v>
       </c>
       <c r="C30" t="n">
-        <v>1.357249675283588e-08</v>
+        <v>0.0002567936743944527</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1079,21 +1095,21 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>recall@5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2546645985041406</v>
+        <v>0.06935689270603237</v>
       </c>
       <c r="C31" t="n">
-        <v>2.11599228045277e-09</v>
+        <v>2.286172004518551e-32</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1109,18 +1125,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2493783740759663</v>
+        <v>0.0664726898887608</v>
       </c>
       <c r="C32" t="n">
-        <v>8.646958870438948e-161</v>
+        <v>0.00211059838458938</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1132,14 +1148,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1138010989083992</v>
+        <v>0.04517690641508457</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00265250942713661</v>
+        <v>0.009724903340785825</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1159,10 +1175,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1086670368879959</v>
+        <v>0.0307551680308578</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01173775255803684</v>
+        <v>0.04281569460190087</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1178,18 +1194,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.09730939798746172</v>
+        <v>0.02636391441899094</v>
       </c>
       <c r="C35" t="n">
-        <v>1.990297151533981e-09</v>
+        <v>0.04992359075860154</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1201,20 +1217,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.08204659033008838</v>
+        <v>0.01558011450074941</v>
       </c>
       <c r="C36" t="n">
-        <v>5.90548209319097e-05</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.06383342204173761</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1224,20 +1236,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.06655136772921616</v>
+        <v>0.01078379991824228</v>
       </c>
       <c r="C37" t="n">
-        <v>3.434535544269424e-16</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.0823780921719503</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1247,20 +1255,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.06570629815395876</v>
+        <v>0.0009298997688024085</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0005503797498281381</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.889968509343676</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1270,20 +1274,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05900904524636993</v>
+        <v>-0.001101836996089399</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01227312644647391</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.9311088963352503</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1293,20 +1293,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03204612877060983</v>
+        <v>-0.003740734703671065</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01367083089704041</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7932685329608546</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1316,14 +1312,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02984597869214318</v>
+        <v>-0.004391253611865938</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4168952569240778</v>
+        <v>0.6921958164470698</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1335,18 +1331,18 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02750719322962204</v>
+        <v>-0.01711999997738563</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03405053689638154</v>
+        <v>0.0004680137425319216</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1358,20 +1354,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02696291647575844</v>
+        <v>-0.01799223015888743</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01889633793601176</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.531738922824755</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1381,14 +1373,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.004078955977092721</v>
+        <v>-0.02493169616474995</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8990176590900252</v>
+        <v>0.2737548040208934</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1400,16 +1392,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001487244161487086</v>
+        <v>-0.02680287807845924</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9283165536598849</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>2.022124063314613e-06</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1419,16 +1415,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.001468171993355555</v>
+        <v>-0.02790676728471356</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8829942908462932</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>0.04705427037458006</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1438,16 +1438,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.001978813736672789</v>
+        <v>-0.06585229141301766</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7653552591978994</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>4.239935440963274e-05</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1457,16 +1461,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.00409533675281745</v>
+        <v>-0.07156446150691183</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5537668583287723</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>0.001068735833297138</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1476,16 +1484,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.01686611303306327</v>
+        <v>-0.08396182260949553</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2038416534233325</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>6.266727362795363e-05</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1495,16 +1507,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.02238272813429143</v>
+        <v>-0.118551035954457</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3879839809331981</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>1.034542817519815e-08</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1514,16 +1530,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.031647186657613</v>
+        <v>-0.1916528704650566</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06523569405943994</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>2.862054619637245e-42</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>recall@5</t>
@@ -1533,79 +1553,83 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.04020138685156019</v>
+        <v>0.2749483587705182</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01208699288582906</v>
+        <v>4.73015897249451e-217</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.04965799164162694</v>
+        <v>0.09708719585191189</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1245473390274772</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>1.87338544329906e-06</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.06193839655041734</v>
+        <v>0.08686407395451247</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001318692392835054</v>
+        <v>5.194684970228902e-08</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.07906515018417454</v>
+        <v>0.07695587875773847</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0006102455578169683</v>
+        <v>7.478884683328158e-07</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1614,63 +1638,67 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.09648229940171656</v>
+        <v>0.07522870246876473</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2027219006713823</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>0.005079640954927</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.09965901109913508</v>
+        <v>0.05365402946997151</v>
       </c>
       <c r="C57" t="n">
-        <v>0.002305579602891006</v>
+        <v>1.212276201889516e-24</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.1434100259936967</v>
+        <v>0.0463701991991308</v>
       </c>
       <c r="C58" t="n">
-        <v>2.54782363892389e-05</v>
+        <v>0.0001485895429389932</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1679,44 +1707,44 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.1770181352522234</v>
+        <v>0.03351110826254901</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0004933401814687364</v>
+        <v>0.01488024133240439</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>mrr@5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2732956530600769</v>
+        <v>0.02735704315266141</v>
       </c>
       <c r="C60" t="n">
-        <v>1.320784163749622e-220</v>
+        <v>0.0003418994734052873</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1732,14 +1760,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1685238586322807</v>
+        <v>0.01901315604646954</v>
       </c>
       <c r="C61" t="n">
-        <v>5.541440334074641e-05</v>
+        <v>0.0007472338795528085</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1755,20 +1783,16 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1151472205312497</v>
+        <v>0.0128590909365826</v>
       </c>
       <c r="C62" t="n">
-        <v>1.177055970178173e-11</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2007826950535632</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1778,20 +1802,16 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.09098429745214176</v>
+        <v>0.004673451903706535</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01022619630966718</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.442761279508358</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1801,20 +1821,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0728920608593579</v>
+        <v>0.003487732810828601</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0001739084246028109</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7625485506113897</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1824,20 +1840,16 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.05739482682815973</v>
+        <v>0.0010458582272279</v>
       </c>
       <c r="C65" t="n">
-        <v>1.321504024628584e-17</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.9355189164971991</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1847,20 +1859,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.05621815854903161</v>
+        <v>-0.005720621364075499</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0003219353168929162</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1951287306449712</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1870,14 +1878,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.04774727568351127</v>
+        <v>-0.006236660810472446</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1238323147406725</v>
+        <v>0.2187755203378255</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -1889,20 +1897,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.04587965757431003</v>
+        <v>-0.01476535868995541</v>
       </c>
       <c r="C68" t="n">
-        <v>1.893092356476287e-05</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5709467341324181</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1912,20 +1916,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.03881267622287856</v>
+        <v>-0.03531744883373501</v>
       </c>
       <c r="C69" t="n">
-        <v>0.003246967067444789</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.08711988048978825</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -1935,18 +1935,18 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.03654961102437081</v>
+        <v>-0.03869169735656308</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0006293044485616506</v>
+        <v>0.001216625563472975</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -1958,18 +1958,18 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02701240328504542</v>
+        <v>-0.04622921331123457</v>
       </c>
       <c r="C71" t="n">
-        <v>0.004236733221422801</v>
+        <v>0.01939092597933995</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -1981,16 +1981,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02205328040124725</v>
+        <v>-0.05494782728775113</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5221906734201467</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>0.004994051288293072</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2000,16 +2004,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01260290900091675</v>
+        <v>-0.07110767006962243</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2477091208457971</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>3.122973302799789e-08</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2019,16 +2027,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.006210492676199469</v>
+        <v>-0.08249689186361603</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2745241266939678</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>1.77145491849687e-08</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2038,16 +2050,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.005337266727846499</v>
+        <v>-0.09822623130497349</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5149309355920791</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>1.544223007364787e-07</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2057,16 +2073,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.003949474627152609</v>
+        <v>-0.1120388969060099</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4684554200897806</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
+        <v>4.65432910713819e-09</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>mrr@5</t>
@@ -2076,159 +2096,175 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0009469962036853519</v>
+        <v>0.4151906633760912</v>
       </c>
       <c r="C77" t="n">
-        <v>0.946388149396622</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>2.302718516199148e-232</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.01374529260807573</v>
+        <v>0.1299852872591883</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6489702106946189</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>6.369599850332543e-06</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.01466820958906263</v>
+        <v>0.1288627193927143</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2803244360424146</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>1.183327560822647e-08</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.0180922365927852</v>
+        <v>0.1213291016504449</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4954292523616093</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>3.750561379444307e-08</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.04133864470436999</v>
+        <v>0.1081094832379626</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02874462092841643</v>
+        <v>0.004436479295745553</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.04702804145853617</v>
+        <v>0.0819896833313298</v>
       </c>
       <c r="C82" t="n">
-        <v>0.002975197152337735</v>
+        <v>3.713701410924257e-28</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.05449043377305434</v>
+        <v>0.06696944405078376</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03937056189076597</v>
+        <v>0.000108446437393267</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.0699216951760941</v>
+        <v>0.05518375713518944</v>
       </c>
       <c r="C84" t="n">
-        <v>0.009174873670528294</v>
+        <v>0.004626728270054561</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2237,21 +2273,21 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.09628394053737245</v>
+        <v>0.03842924010967091</v>
       </c>
       <c r="C85" t="n">
-        <v>6.509710764732648e-13</v>
+        <v>0.0003773556067826452</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2260,92 +2296,84 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.1086436029504074</v>
+        <v>0.02854020394111306</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08096391876683498</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>0.000350418453356207</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.1144468225722801</v>
+        <v>0.01178568691559543</v>
       </c>
       <c r="C87" t="n">
-        <v>1.057374367010834e-07</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4071603403675977</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1759412431746429</v>
+        <v>0.004049038051352904</v>
       </c>
       <c r="C88" t="n">
-        <v>4.465278005563504e-10</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8042246704479952</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>hit@5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.4120057125211891</v>
+        <v>-0.0001308407956099253</v>
       </c>
       <c r="C89" t="n">
-        <v>5.417613387936318e-231</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.9942930313588783</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2355,20 +2383,16 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.2123878169266527</v>
+        <v>-0.0002179929859904839</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0004081847690538319</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.979810723961968</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2378,20 +2402,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1718476167469456</v>
+        <v>-0.005831401788170083</v>
       </c>
       <c r="C91" t="n">
-        <v>2.166657483852437e-12</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4162998766550688</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2401,20 +2421,16 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1330110023705964</v>
+        <v>-0.008970844506386345</v>
       </c>
       <c r="C92" t="n">
-        <v>0.009110738226496018</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1511293163462732</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2424,20 +2440,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1053102317306453</v>
+        <v>-0.0222690234939521</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0001647461569246928</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5458747726460005</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2447,20 +2459,16 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.08970786121993031</v>
+        <v>-0.05351510839908076</v>
       </c>
       <c r="C94" t="n">
-        <v>6.809781936866127e-05</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.06699875426441922</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2470,18 +2478,18 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.08757142510928116</v>
+        <v>-0.05482281159194075</v>
       </c>
       <c r="C95" t="n">
-        <v>1.81654524404454e-19</v>
+        <v>0.00119860730222018</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2493,18 +2501,18 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.07418184636704615</v>
+        <v>-0.05586028152007601</v>
       </c>
       <c r="C96" t="n">
-        <v>9.691885176389582e-05</v>
+        <v>0.04577627197386645</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2516,16 +2524,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.07412702268023913</v>
+        <v>-0.07043095518273926</v>
       </c>
       <c r="C97" t="n">
-        <v>0.09702855560617084</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>0.01094979713589678</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -2535,14 +2547,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.06441273547354019</v>
+        <v>-0.09506048910121626</v>
       </c>
       <c r="C98" t="n">
-        <v>3.00691824217626e-05</v>
+        <v>1.653438606303187e-07</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2558,18 +2570,18 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.04528783280361055</v>
+        <v>-0.09837183101340631</v>
       </c>
       <c r="C99" t="n">
-        <v>0.003218122135812922</v>
+        <v>1.916189967705121e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2581,18 +2593,18 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.04089749625710126</v>
+        <v>-0.1429033737627582</v>
       </c>
       <c r="C100" t="n">
-        <v>0.002637907515361381</v>
+        <v>6.973443506321671e-08</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2604,345 +2616,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0153042179749036</v>
+        <v>-0.1476826274644318</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3294245252547686</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>4.590657525690935e-08</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Model Name_NFCF</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.01227982949739648</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.1335331015450089</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Model Name_PFCN_MLP</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.005271473832973821</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.5014258066908945</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.005033458493160642</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.8039156675705607</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Model Name_FairGo_PMF</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.0001875032909947338</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.9873184420137644</v>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.001994335958209248</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9679249692857353</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Rating</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.00686798548313685</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.8744469614270758</v>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Generalized Cross Entropy</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.02005979841535962</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.3050363238617613</v>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Dataset_BX</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.02770077063995358</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.4684172492033083</v>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.0630129872446987</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.02059562625633651</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Gini User</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.06573513779415682</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.003916861598395446</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.06697103157492537</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.07843237338240514</v>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.1115314835157065</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.003909286797990524</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.1266940951580796</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.1572736751637643</v>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Value Unfairness of sensitive attribute</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.1314820192402879</v>
-      </c>
-      <c r="C115" t="n">
-        <v>8.294506049553329e-12</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.1599523649148497</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2.403618523644169e-07</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.2310572962856191</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.17062544590426e-08</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
         <is>
           <t>hit@5</t>
         </is>

--- a/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55088634141.22455</v>
+        <v>41699304620.0976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7747495008384342</v>
+        <v>0.80416878209806</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39215219573.80734</v>
+        <v>27507447966.72452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7747495008383037</v>
+        <v>0.8041687820976956</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39215219573.75232</v>
+        <v>27507447966.61755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7747495008386074</v>
+        <v>0.8041687820984377</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25786328304.76932</v>
+        <v>18221771153.32562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7747495008371597</v>
+        <v>0.8041687820964875</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25786328304.59918</v>
+        <v>18221771153.15858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7747495008386065</v>
+        <v>0.8041687820982473</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25786328304.48334</v>
+        <v>18221771153.04324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7747495008395917</v>
+        <v>0.8041687820994616</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -577,14 +577,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3065610771038253</v>
+        <v>0.2712765201384789</v>
       </c>
       <c r="C8" t="n">
-        <v>5.331186606258234e-06</v>
+        <v>5.261269853731772e-14</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -600,14 +600,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2800295534300795</v>
+        <v>0.2359360654501033</v>
       </c>
       <c r="C9" t="n">
-        <v>8.178300814917692e-15</v>
+        <v>0.0001676018324917555</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -623,18 +623,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1556738521203458</v>
+        <v>0.1648450119694923</v>
       </c>
       <c r="C10" t="n">
-        <v>6.025816132756126e-10</v>
+        <v>0.001356877968573941</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -646,16 +646,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0853302302965448</v>
+        <v>0.150180630675426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1428504203828994</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>2.407028775202049e-09</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -665,14 +669,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0567599896669299</v>
+        <v>0.05282992919754335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1222217900818157</v>
+        <v>0.2929811891537768</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -684,14 +688,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0525559000154617</v>
+        <v>0.0472986977370351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0767904001894658</v>
+        <v>0.1978775221567238</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -707,10 +711,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0524747063956261</v>
+        <v>0.04497739691499196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1837593656944995</v>
+        <v>0.2553913015311434</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -722,14 +726,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05111088339332934</v>
+        <v>0.03162248074623818</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5221664568343101</v>
+        <v>0.274097834775876</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -741,14 +745,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05036158751355616</v>
+        <v>0.02875434477238261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3689001313868259</v>
+        <v>0.8603899851831217</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -760,14 +764,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02185255814302334</v>
+        <v>0.00606643925008632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.669434082012166</v>
+        <v>0.8296775003742043</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -779,14 +783,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008972660576516476</v>
+        <v>0.005336387379640893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9560924053590145</v>
+        <v>0.8663810368339108</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -798,14 +802,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005454245143222389</v>
+        <v>-0.01467150863390797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9488524672474867</v>
+        <v>0.8483598331143329</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -817,14 +821,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009767419360293884</v>
+        <v>-0.01991315284898296</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7605013989503339</v>
+        <v>0.6702311735250499</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -836,14 +840,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02912024442703491</v>
+        <v>-0.02295081127665986</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3424443978792238</v>
+        <v>0.7866222621882895</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -855,14 +859,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.05808021934883212</v>
+        <v>-0.03829371447221433</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3863886567738407</v>
+        <v>0.4139714240199367</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -874,14 +878,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.07282305134062764</v>
+        <v>-0.06598469430278966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09168975859285655</v>
+        <v>0.3268437027493291</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -893,18 +897,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1244019676505591</v>
+        <v>-0.09557520556642594</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001501480731487585</v>
+        <v>0.0249688886881168</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -916,18 +920,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1393604486567889</v>
+        <v>-0.1202566784425576</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02633082077814458</v>
+        <v>0.0002595508447702987</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -939,14 +943,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1491819822108467</v>
+        <v>-0.1808324811066227</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004359879735984703</v>
+        <v>0.002544954583323742</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -962,20 +966,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1740471038706901</v>
+        <v>-87428523739.9176</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003558843088009922</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8041687820981194</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -985,36 +985,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-120090182019.5654</v>
+        <v>-87428523739.94202</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7747495008385453</v>
+        <v>0.8041687820980659</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-120090182019.59</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.7747495008385008</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
         <is>
           <t>hit@5</t>
         </is>
